--- a/diaries/diary-junxian-chen.xlsx
+++ b/diaries/diary-junxian-chen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joxon\Documents\_Repos\swe265p-reveng\W2020\diaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2ED51D-804A-44F1-B388-232EAE7E3343}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED147CE-4CC9-499F-8EA0-6C72FBB3E865}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="6900" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -51,42 +51,18 @@
     <t>Participants</t>
   </si>
   <si>
-    <t>&lt;what day?&gt;</t>
-  </si>
-  <si>
-    <t>&lt;what time?&gt;</t>
-  </si>
-  <si>
     <t>Reflection</t>
   </si>
   <si>
-    <t>&lt;as applicable, with whom?&gt;</t>
-  </si>
-  <si>
     <t>Your Overall Mood</t>
   </si>
   <si>
     <t>Goal</t>
   </si>
   <si>
-    <t>&lt;what did you want to accomplish?&gt;</t>
-  </si>
-  <si>
     <t>Achievements</t>
   </si>
   <si>
-    <t>&lt;what did you actually accomplish?&gt;</t>
-  </si>
-  <si>
-    <t>&lt;what insight(s) did you gain?&gt;</t>
-  </si>
-  <si>
-    <t>&lt;how did you feel during the activity?&gt;</t>
-  </si>
-  <si>
-    <t>Etc.</t>
-  </si>
-  <si>
     <t>Junxian Chen</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -123,7 +99,55 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>N/A</t>
+    <t>Wenchia, Zihua</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>A little bit frustrated but still excited :)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>The build system Ant was difficult to use. Nowadays there are more modern options like Maven and Gradle.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-5pm</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andre, Kaj</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andre, Kaj, Ping</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tried to build jEdit but encountered tons of errors like, error downloading ivy, error retriving other JARs, etc. Could not resolve dependencies manually because there were too many missing packages.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. To build jEdit and Guava.
+2. Figure out the basics of Ant and Maven.
+</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Review what we learned last week;
+2. Learn some basic strategies of reading codes and apply them to understanding a project;
+3. Learn from a current Google employee.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Able to solve the JPacMan practice problems on class. Learned about 'Tech Debt' from Ping.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>I once built a game in a team in my junior year. It is kind of familiar to see how the code updates the frame by calling the draw() function and loading the sprites to build the scene. In the JPacMan1 project the structure is flatten and the organization is broken, so 'Find usages' doesn't work. It needs some creativity to search the correct keyword for the problems.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -254,11 +278,40 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -270,7 +323,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -296,11 +349,47 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -620,36 +709,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
-  <dimension ref="A1:G125"/>
+  <dimension ref="A1:G123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="34.6640625" customWidth="1"/>
+    <col min="1" max="3" width="34.6640625" customWidth="1"/>
+    <col min="4" max="4" width="41.5546875" customWidth="1"/>
+    <col min="5" max="5" width="42.88671875" customWidth="1"/>
+    <col min="6" max="7" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -665,7 +757,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -677,8 +769,8 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>19</v>
+      <c r="B5" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -691,7 +783,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -719,7 +811,7 @@
     </row>
     <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>4</v>
@@ -728,111 +820,109 @@
         <v>5</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="78" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="16" customFormat="1" ht="78" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
         <v>20200109</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="19" customFormat="1" ht="109.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>20200116</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="22" customFormat="1" ht="171.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="20">
+        <v>20200116</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8"/>
+      <c r="E12" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:7" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="12"/>
     </row>
     <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -842,16 +932,16 @@
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+      <c r="D16" s="6"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="8"/>
@@ -860,7 +950,7 @@
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="6"/>
+      <c r="D18" s="8"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="8"/>
@@ -878,7 +968,7 @@
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
+      <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="8"/>
@@ -887,7 +977,7 @@
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
+      <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="8"/>
@@ -1809,24 +1899,6 @@
       <c r="E123" s="7"/>
       <c r="F123" s="7"/>
       <c r="G123" s="8"/>
-    </row>
-    <row r="124" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A124" s="7"/>
-      <c r="B124" s="7"/>
-      <c r="C124" s="7"/>
-      <c r="D124" s="7"/>
-      <c r="E124" s="7"/>
-      <c r="F124" s="7"/>
-      <c r="G124" s="8"/>
-    </row>
-    <row r="125" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A125" s="7"/>
-      <c r="B125" s="7"/>
-      <c r="C125" s="7"/>
-      <c r="D125" s="7"/>
-      <c r="E125" s="7"/>
-      <c r="F125" s="7"/>
-      <c r="G125" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
